--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B24" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
